--- a/public/data/bipumin.xlsx
+++ b/public/data/bipumin.xlsx
@@ -2,79 +2,144 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seogun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seogun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D2CCE-E90F-8E4F-9AE5-55394EBCF05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D0B462-63A2-FE41-B81E-BB7317FB32AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{23F97EF8-2E91-0A47-8DD7-36434FFE214A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="비품관리01" sheetId="1" r:id="rId1"/>
+    <sheet name="예시" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>부서</t>
+  </si>
+  <si>
+    <t>제품명</t>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>시리얼넘버</t>
+  </si>
+  <si>
+    <t>비품관리대장</t>
+  </si>
   <si>
     <t>등록일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협력업체</t>
+  </si>
+  <si>
+    <t>삼성 오디세이 게이밍 모니터</t>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 넘버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>협력업체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비품관리대장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* [종류] 열은 비품인에 등록된 카테고리에서만 입력이 가능합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목별 주의 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30자 이내로만 입력이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy.mm.dd 의 형식으로 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 소분류 카테고리만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 부서와 일치하는 사원명만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 부서만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 협력업체만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 비품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 비품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 비품 등록시 사용자 항목은 공백으로 처리해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼넘버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 필수 입력 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO2463453</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀을 통한 복수 등록시, 2개 이상부터 등록이 가능하며, 종류, 제품명, 시리얼 넘버는 필수 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 시트를 추가할때는 해당 시트를 복사 후 사용해주세요.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,48 +147,85 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF7E79"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
+      <color rgb="FFF51B00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,7 +234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF39A571"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,20 +274,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF39A571"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCDFCF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -171,149 +285,65 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -323,9 +353,63 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -335,111 +419,139 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +562,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFCDFCF"/>
-      <color rgb="FFF2BDAE"/>
-      <color rgb="FF39A571"/>
-      <color rgb="FFFF7E79"/>
+      <color rgb="FFFFD7D6"/>
+      <color rgb="FFF51B00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -478,16 +588,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>223141</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>7784</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그래픽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D79654-1D80-EF58-9400-B72D0EDCF055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7601C0BD-605E-104B-9E99-1FF50F8EAFF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,14 +605,8 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -510,7 +614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266700" y="241300"/>
-          <a:ext cx="1701800" cy="274484"/>
+          <a:ext cx="1696341" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,21 +837,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -809,166 +913,508 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67832042-52A4-FC46-8E73-95FD7EA653B7}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E8C7FC-ADAF-8144-A267-7870FD173818}">
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="4"/>
+    <col min="1" max="1" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="10"/>
+    <col min="15" max="15" width="5.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="1" spans="1:12" ht="20" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="25"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" ht="30">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="39" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" ht="16" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" ht="16" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" ht="16" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:15" ht="16" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:15" ht="16" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" ht="36" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="E22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="D14" s="7"/>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="28">
+        <v>44673</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="28"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="8"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="8"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="8"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:15" ht="20" customHeight="1">
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:15" ht="20" customHeight="1">
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:15" ht="20" customHeight="1">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:15" ht="20" customHeight="1">
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:15" ht="20" customHeight="1">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="2:15" ht="20" customHeight="1">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="2:15" ht="20" customHeight="1">
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="2:15" ht="20" customHeight="1">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="2:15" ht="20" customHeight="1">
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="2:15" ht="20" customHeight="1">
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="2:15" ht="20" customHeight="1">
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="2:15" ht="20" customHeight="1">
+      <c r="B44" s="1"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="2:15" ht="20" customHeight="1">
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="2:15" ht="20" customHeight="1">
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QB7BrMsJMt84IpwHTrwlDhZoARPMoHtvuXh4wRAi5u2QKRfl5gt8a0hW/25kbG/eS9sPCCxIcUszlXKWU16jTw==" saltValue="Qx1EJOKbP88Mw2BKgu6liw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="A4:G7"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X3d23LlSUtO854zQ93YnWocx1wLMqrPCAhUElPSlqN4cAu1qQ62V5spT5sWLeEQMDifGseg50CZ+yBs/Puv4gg==" saltValue="6DadtDcJaX/E/qLVxTl/vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="11">
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:G3"/>
-    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A4:G6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/data/bipumin.xlsx
+++ b/public/data/bipumin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seogun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seogun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D0B462-63A2-FE41-B81E-BB7317FB32AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF88063-BE73-6F40-88DD-AAA9B0213FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,114 +31,115 @@
     <t>사용자</t>
   </si>
   <si>
+    <t>비품관리대장</t>
+  </si>
+  <si>
+    <t>등록일자</t>
+  </si>
+  <si>
+    <t>협력업체</t>
+  </si>
+  <si>
+    <t>삼성 오디세이 게이밍 모니터</t>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 넘버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>협력업체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목별 주의 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30자 이내로만 입력이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy.mm.dd 의 형식으로 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 소분류 카테고리만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 부서와 일치하는 사원명만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 부서만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 협력업체만 입력 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 비품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 비품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 비품 등록시 사용자 항목은 공백으로 처리해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO2463453</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀을 통한 복수 등록시, 2개 이상부터 등록이 가능하며, 종류, 제품명, 시리얼 넘버는 필수 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 시트를 추가할때는 해당 시트를 복사 후 사용해주세요.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>시리얼넘버</t>
-  </si>
-  <si>
-    <t>비품관리대장</t>
-  </si>
-  <si>
-    <t>등록일자</t>
-  </si>
-  <si>
-    <t>협력업체</t>
-  </si>
-  <si>
-    <t>삼성 오디세이 게이밍 모니터</t>
-  </si>
-  <si>
-    <t>제품명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼 넘버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>협력업체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목별 주의 사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30자 이내로만 입력이 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy.mm.dd 의 형식으로 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 소분류 카테고리만 입력 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 부서와 일치하는 사원명만 입력 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 부서만 입력 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 협력업체만 입력 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공백</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 비품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공용 비품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공용 비품 등록시 사용자 항목은 공백으로 처리해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모니터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MO2463453</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀을 통한 복수 등록시, 2개 이상부터 등록이 가능하며, 종류, 제품명, 시리얼 넘버는 필수 입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 시트를 추가할때는 해당 시트를 복사 후 사용해주세요.</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -920,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E8C7FC-ADAF-8144-A267-7870FD173818}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20" customHeight="1"/>
@@ -976,7 +977,7 @@
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -1021,7 +1022,7 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -1033,7 +1034,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -1045,7 +1046,7 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -1067,13 +1068,13 @@
       <c r="A12" s="9"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="14"/>
@@ -1083,10 +1084,10 @@
       <c r="A13" s="9"/>
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="9"/>
@@ -1097,10 +1098,10 @@
       <c r="A14" s="9"/>
       <c r="B14" s="16"/>
       <c r="C14" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="9"/>
@@ -1111,7 +1112,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
@@ -1123,10 +1124,10 @@
       <c r="A16" s="9"/>
       <c r="B16" s="16"/>
       <c r="C16" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="9"/>
@@ -1137,10 +1138,10 @@
       <c r="A17" s="9"/>
       <c r="B17" s="16"/>
       <c r="C17" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="9"/>
@@ -1151,13 +1152,13 @@
       <c r="A18" s="9"/>
       <c r="B18" s="16"/>
       <c r="C18" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="14"/>
@@ -1167,10 +1168,10 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="9"/>
@@ -1181,7 +1182,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="16"/>
       <c r="C20" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -1201,16 +1202,16 @@
     </row>
     <row r="22" spans="1:15" ht="36" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>0</v>
@@ -1219,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1231,19 +1232,19 @@
     </row>
     <row r="23" spans="1:15" ht="20" customHeight="1">
       <c r="A23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D23" s="28">
         <v>44673</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="11"/>
     </row>
@@ -1398,7 +1399,7 @@
       <c r="O46" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X3d23LlSUtO854zQ93YnWocx1wLMqrPCAhUElPSlqN4cAu1qQ62V5spT5sWLeEQMDifGseg50CZ+yBs/Puv4gg==" saltValue="6DadtDcJaX/E/qLVxTl/vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
     <mergeCell ref="D14:E15"/>
     <mergeCell ref="D16:E16"/>
